--- a/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/erp.dict.xlsx
+++ b/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/erp.dict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC60821-0B49-7143-93E8-9974124E9565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6245268-C341-4D40-8F5A-7B2C158DF1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="67240" yWindow="-8720" windowWidth="38400" windowHeight="27800" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="105">
   <si>
     <t>code</t>
   </si>
@@ -370,6 +370,32 @@
   </si>
   <si>
     <t>c318e706-0876-4d97-81f0-b5f485da64ef</t>
+  </si>
+  <si>
+    <t>zero.employee.hour</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>补签</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>休假</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>missing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vacation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d8f6a738-2f37-4726-bc73-e0398a494f38</t>
+  </si>
+  <si>
+    <t>3ee1d0df-ad98-4f52-add0-f1366fdfc63c</t>
   </si>
 </sst>
 </file>
@@ -873,10 +899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B153567-C702-204F-B537-960DCAAE5957}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:A30"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1324,120 +1350,154 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="8" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="C24" s="5">
         <v>1005</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="8" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="C25" s="5">
         <v>1010</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>76</v>
       </c>
       <c r="C26" s="5">
-        <v>1015</v>
+        <v>1005</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="8" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C27" s="5">
-        <v>1005</v>
+        <v>1010</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="8" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C28" s="5">
-        <v>1010</v>
+        <v>1015</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>85</v>
       </c>
       <c r="C29" s="5">
-        <v>1015</v>
+        <v>1005</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>85</v>
       </c>
       <c r="C30" s="5">
+        <v>1010</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="5">
+        <v>1015</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="5">
         <v>1020</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D32" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E32" s="9" t="s">
         <v>93</v>
       </c>
     </row>

--- a/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/erp.dict.xlsx
+++ b/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/erp.dict.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dengchunmei/Desktop/AboutHotel/vertx-zero/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6245268-C341-4D40-8F5A-7B2C158DF1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A795176-EB87-2149-A12E-DBC1E55C17D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67240" yWindow="-8720" windowWidth="38400" windowHeight="27800" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-LDATA" sheetId="6" r:id="rId1"/>
@@ -20,19 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="112">
   <si>
     <t>code</t>
   </si>
@@ -396,6 +389,32 @@
   </si>
   <si>
     <t>3ee1d0df-ad98-4f52-add0-f1366fdfc63c</t>
+  </si>
+  <si>
+    <t>zero.contract</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准合同</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三方合同</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b6a9ef3f-6e19-4582-9425-fe850c12ccda</t>
+  </si>
+  <si>
+    <t>cec48a38-9461-4937-8011-182593989169</t>
+  </si>
+  <si>
+    <t>standard</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tripartite</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -587,7 +606,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -603,7 +622,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -899,10 +918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B153567-C702-204F-B537-960DCAAE5957}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1501,6 +1520,40 @@
         <v>93</v>
       </c>
     </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="5">
+        <v>1005</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="5">
+        <v>1010</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C2:E2"/>

--- a/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/erp.dict.xlsx
+++ b/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/erp.dict.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dengchunmei/Desktop/AboutHotel/vertx-zero/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A795176-EB87-2149-A12E-DBC1E55C17D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED32A028-02CD-B24B-B4CD-6FBF62748DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="71340" yWindow="-10780" windowWidth="30420" windowHeight="29940" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-LDATA" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="221">
   <si>
     <t>code</t>
   </si>
@@ -66,39 +66,21 @@
     <t>sort</t>
   </si>
   <si>
-    <t>4b625d14-2a93-40f0-bfea-54467a00c277</t>
-  </si>
-  <si>
     <t>zero.customer</t>
   </si>
   <si>
     <t>corporation</t>
   </si>
   <si>
-    <t>bdfaf9ee-7e32-41f9-ad0e-8d0d9e57809f</t>
-  </si>
-  <si>
     <t>供应商</t>
   </si>
   <si>
     <t>vendor</t>
   </si>
   <si>
-    <t>0fa54954-9da0-4669-b6b4-6453764b1a0c</t>
-  </si>
-  <si>
     <t>zero.company</t>
   </si>
   <si>
-    <t>fcf915bc-288e-42b9-a382-b534cc0c72af</t>
-  </si>
-  <si>
-    <t>d64f2180-9882-40c4-b711-12a4ed1dfd55</t>
-  </si>
-  <si>
-    <t>1bb2e471-3da3-417c-b541-5b4ddd5740c6</t>
-  </si>
-  <si>
     <t>zero.employee</t>
   </si>
   <si>
@@ -108,24 +90,15 @@
     <t>cw</t>
   </si>
   <si>
-    <t>af12616c-f482-48d7-bfe0-0c523f89c5fe</t>
-  </si>
-  <si>
     <t>正式员工</t>
   </si>
   <si>
     <t>regular</t>
   </si>
   <si>
-    <t>ed0a8a38-b1ff-4871-b5d1-a7faba8996c9</t>
-  </si>
-  <si>
     <t>第三方员工</t>
   </si>
   <si>
-    <t>f7e370d2-cbbd-473b-a5cf-5d6be14bd5a9</t>
-  </si>
-  <si>
     <t>zero.identity</t>
   </si>
   <si>
@@ -133,9 +106,6 @@
   </si>
   <si>
     <t>id.employee</t>
-  </si>
-  <si>
-    <t>ba1325a7-ecb6-4429-8ad8-54b97b80d8ca</t>
   </si>
   <si>
     <t>基础客户</t>
@@ -178,9 +148,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0c7c9b9d-c7d3-496e-a62c-19cc9cced955</t>
-  </si>
-  <si>
     <t>供应商账号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -221,18 +188,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2eb93f61-19a8-4dd1-bee9-b6d51d80426c</t>
-  </si>
-  <si>
-    <t>1a45834d-78ab-494a-a793-6bd5bbdcfb35</t>
-  </si>
-  <si>
-    <t>8e49bb98-f283-47bf-9307-051f0c4e44b0</t>
-  </si>
-  <si>
-    <t>40767066-9467-44fb-a12e-ca80559a74d1</t>
-  </si>
-  <si>
     <t>third_party</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -269,18 +224,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>5a659b64-6c8f-4695-a99a-2c433ffdc86a</t>
-  </si>
-  <si>
-    <t>12afebc9-9ef8-4d39-9d41-2ece6a2b856c</t>
-  </si>
-  <si>
-    <t>3641d3ea-85e0-4356-96c2-428ddebbedd2</t>
-  </si>
-  <si>
-    <t>926793a9-07cd-43a5-a157-3cb214f3afd4</t>
-  </si>
-  <si>
     <t>zero.employee.vacation</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -309,15 +252,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>cb51c44e-eaf0-41c6-ba21-32d764941381</t>
-  </si>
-  <si>
-    <t>7e0ef7eb-6c88-469f-8d6d-38219c0af29f</t>
-  </si>
-  <si>
-    <t>10c363d8-debb-41d8-a43e-ea71f0b1dc62</t>
-  </si>
-  <si>
     <t>zero.customer.rank</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -353,18 +287,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>c673ee15-6ab3-4b28-9812-545187097ff6</t>
-  </si>
-  <si>
-    <t>e8cd2b64-8f8f-4070-980e-677a4db1456b</t>
-  </si>
-  <si>
-    <t>656e6c15-17e1-4ceb-b250-d9e961c7757b</t>
-  </si>
-  <si>
-    <t>c318e706-0876-4d97-81f0-b5f485da64ef</t>
-  </si>
-  <si>
     <t>zero.employee.hour</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -385,36 +307,496 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>d8f6a738-2f37-4726-bc73-e0398a494f38</t>
-  </si>
-  <si>
-    <t>3ee1d0df-ad98-4f52-add0-f1366fdfc63c</t>
-  </si>
-  <si>
     <t>zero.contract</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>标准合同</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>三方合同</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>b6a9ef3f-6e19-4582-9425-fe850c12ccda</t>
-  </si>
-  <si>
-    <t>cec48a38-9461-4937-8011-182593989169</t>
-  </si>
-  <si>
-    <t>standard</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tripartite</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>外购类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>outsourcing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>development</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户人员类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>考核结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>休假类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公式补签类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同类别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.tabular</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.contract.status</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.contract.budget</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.project</t>
+  </si>
+  <si>
+    <t>zero.project</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目类别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目级别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目所属预算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同所属预算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同级别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.contract.level</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.project.status</t>
+  </si>
+  <si>
+    <t>zero.project.status</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.project.level</t>
+  </si>
+  <si>
+    <t>zero.project.level</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.project.budget</t>
+  </si>
+  <si>
+    <t>zero.project.budget</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目优先级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目风险</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.project.priority</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.project.risk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>立项</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>招标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>试运行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维护中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结项</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂停</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>setup</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>invite</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>running</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>maintain</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cancel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>suspend</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>preoperation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>department</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>operation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>high</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>middle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>low</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>82b72669-eed5-4a24-aac2-a080c18ad951</t>
+  </si>
+  <si>
+    <t>beda0329-5fa8-4096-b9c9-858f7e90e008</t>
+  </si>
+  <si>
+    <t>1854508e-d0d1-4665-9f2d-f5cc1c08b526</t>
+  </si>
+  <si>
+    <t>100a6e30-f108-427d-a494-e8d6d07f6a4a</t>
+  </si>
+  <si>
+    <t>31ee2dd7-e727-49d8-80b7-b910c1f899da</t>
+  </si>
+  <si>
+    <t>44a63cf0-cb5d-4aa5-8dbe-0ba31db9e04d</t>
+  </si>
+  <si>
+    <t>dad88438-7fc0-40d1-bd36-4d89c5524212</t>
+  </si>
+  <si>
+    <t>6881fc85-caae-455d-9fd4-dd2a6ddb2fcd</t>
+  </si>
+  <si>
+    <t>8c9ad3fa-cc95-45f0-bffb-d9b548898818</t>
+  </si>
+  <si>
+    <t>fe9006d3-adcf-4d35-be39-680e42f41333</t>
+  </si>
+  <si>
+    <t>a9bf004f-37e1-424b-b31f-6faa5b7f55a7</t>
+  </si>
+  <si>
+    <t>be6d6563-f555-4068-adb5-9de64101303c</t>
+  </si>
+  <si>
+    <t>0287693a-a416-4699-88fd-fb016a63f27c</t>
+  </si>
+  <si>
+    <t>d97aee4c-813e-4020-bb33-49b793547123</t>
+  </si>
+  <si>
+    <t>e2630610-a5f8-401b-8a33-49583ca23ef0</t>
+  </si>
+  <si>
+    <t>e571c003-4673-4bb5-9a32-5a7d8672d1c6</t>
+  </si>
+  <si>
+    <t>e7e73681-b1e5-4aa3-9271-be20b106c7b1</t>
+  </si>
+  <si>
+    <t>22d9988a-24b5-4243-b8a6-8e0366d3a40b</t>
+  </si>
+  <si>
+    <t>b4509cbb-28af-4129-a72e-d936a3f1b2c1</t>
+  </si>
+  <si>
+    <t>31a4608e-9987-47cb-b62a-7a7199faa784</t>
+  </si>
+  <si>
+    <t>a8ca6a12-0bb4-4f73-8501-8b0615530076</t>
+  </si>
+  <si>
+    <t>36333a27-ddf2-40ee-80aa-0f98abe19f58</t>
+  </si>
+  <si>
+    <t>a640e088-bd3f-452b-8395-601a45f9c2c9</t>
+  </si>
+  <si>
+    <t>c224e172-53ee-43c2-bf88-bd22eaf9bf0d</t>
+  </si>
+  <si>
+    <t>d25f76f8-de3a-4938-932f-ba0d1d05f514</t>
+  </si>
+  <si>
+    <t>aa27c9b9-704a-4cf1-adef-2bd81da409ec</t>
+  </si>
+  <si>
+    <t>3a858988-5785-4534-aa5c-91f8600bb382</t>
+  </si>
+  <si>
+    <t>dba43d7f-e365-448a-845a-1c655946e108</t>
+  </si>
+  <si>
+    <t>376b98d0-2999-47ab-9fa4-391e4d3ab692</t>
+  </si>
+  <si>
+    <t>65c5ade9-62e4-4506-bbfd-632b6c6a0329</t>
+  </si>
+  <si>
+    <t>9e7d986d-a9d4-450e-95ea-c61e62c15305</t>
+  </si>
+  <si>
+    <t>f414acc1-db3d-4dd4-b61e-aec1ac3874e7</t>
+  </si>
+  <si>
+    <t>46cde538-dc9b-4d10-99ea-38764919184a</t>
+  </si>
+  <si>
+    <t>18578398-0564-49f5-a483-e69ec3d2b718</t>
+  </si>
+  <si>
+    <t>ce9989b9-8a67-4594-9373-3dd4931cd220</t>
+  </si>
+  <si>
+    <t>93998a49-efc8-4065-ab4f-3317d744aacc</t>
+  </si>
+  <si>
+    <t>9b0e2bc7-dc1a-402d-8ccf-3fe59c1a3471</t>
+  </si>
+  <si>
+    <t>3f7d57cb-51af-43e4-9256-0f8e585f6132</t>
+  </si>
+  <si>
+    <t>e70337d4-431d-4a20-ac9d-4e6477b92ef3</t>
+  </si>
+  <si>
+    <t>87884495-91a4-49c6-9c3b-ef0f8882efe9</t>
+  </si>
+  <si>
+    <t>17704771-3421-44b6-bb22-f203f5d5eb53</t>
+  </si>
+  <si>
+    <t>11b72228-cc6c-4b56-b471-9025156c2b7e</t>
+  </si>
+  <si>
+    <t>85df53b6-c572-4953-8673-ad6ecd1a094b</t>
+  </si>
+  <si>
+    <t>916b6201-cf7c-4295-bf44-f137d9d8f77c</t>
+  </si>
+  <si>
+    <t>ad869561-a4d8-4a49-a6da-66f1dbb6d4c0</t>
+  </si>
+  <si>
+    <t>cdb1bcc7-95ed-48c4-900f-d34537fa4863</t>
+  </si>
+  <si>
+    <t>84458615-e6fd-46f3-8900-a125965c6c3d</t>
+  </si>
+  <si>
+    <t>f8c3b381-c7e5-44a7-814a-76026387377f</t>
+  </si>
+  <si>
+    <t>e47a9cd6-26cd-427c-8fde-3c82867ddc76</t>
+  </si>
+  <si>
+    <t>ade55ad3-f8c5-4104-8e19-d9e02b3ecc11</t>
+  </si>
+  <si>
+    <t>9358b775-e6bc-40d4-a4db-17ce37fc7ebf</t>
+  </si>
+  <si>
+    <t>eca7441f-9bda-4eac-9c8e-79f052abd262</t>
+  </si>
+  <si>
+    <t>2cf1f4a8-844d-468f-8072-5212e06ac909</t>
+  </si>
+  <si>
+    <t>0a7bcd17-d471-4978-8049-c98d0349b18d</t>
+  </si>
+  <si>
+    <t>8611b3c1-d48c-4aa5-8f9b-a708b0cc9ff4</t>
+  </si>
+  <si>
+    <t>5a49616b-0125-49c3-8e2f-c367654a11e6</t>
+  </si>
+  <si>
+    <t>add142a9-7da3-4f7f-8591-06bc81aac176</t>
+  </si>
+  <si>
+    <t>322ac4c6-0c61-463b-b9b7-51c6a82e23eb</t>
+  </si>
+  <si>
+    <t>21e4807f-b790-40c2-abd4-330acc1e71bb</t>
+  </si>
+  <si>
+    <t>2fb10a6c-24b8-44ca-8f9f-03d5120d65c6</t>
+  </si>
+  <si>
+    <t>ab193e5e-3207-4f35-b29c-c870e8110689</t>
+  </si>
+  <si>
+    <t>bf7da2ef-832d-496b-9448-55e96d2663f2</t>
+  </si>
+  <si>
+    <t>18dd17c2-bab4-49d6-bde7-4d0a4c689716</t>
+  </si>
+  <si>
+    <t>3ca105ed-426e-4ddb-b7e6-9364f82d6135</t>
+  </si>
+  <si>
+    <t>f465e7bc-8df0-488d-a7e4-dbf777206430</t>
+  </si>
+  <si>
+    <t>57e1939f-0dd1-4626-b18e-66060ba2f172</t>
+  </si>
+  <si>
+    <t>77b9b06a-48fc-4f0c-8f6d-bc2f135e8520</t>
+  </si>
+  <si>
+    <t>d731a1a5-a7b1-49d8-b06c-5e9c6bf338f7</t>
+  </si>
+  <si>
+    <t>4e729a4a-e275-49ed-83e0-8899711623e3</t>
+  </si>
+  <si>
+    <t>219b069f-278b-4403-96df-a57cf7f78c20</t>
+  </si>
+  <si>
+    <t>c8ca8f2e-fc47-4288-9e18-89ba8ca29f1e</t>
+  </si>
+  <si>
+    <t>cf469d89-afa3-4347-8903-3e1ece5e7f7b</t>
+  </si>
+  <si>
+    <t>29b947e7-5cfc-492d-baff-fb0dfe237597</t>
+  </si>
+  <si>
+    <t>6e923753-1465-4ec4-8963-48a9185dc871</t>
+  </si>
+  <si>
+    <t>e1160ae7-5d36-4cf2-bc69-46270d8c4547</t>
+  </si>
+  <si>
+    <t>63bed79c-791f-418c-a60b-3f4f5d30eb31</t>
+  </si>
+  <si>
+    <t>51af44f1-055d-4484-973d-525f4ee97d46</t>
+  </si>
+  <si>
+    <t>23cdfffb-48fe-40e6-ab99-a5fe12be67e7</t>
+  </si>
+  <si>
+    <t>725ffe26-87ac-4bac-9f55-0e86c45c6d7b</t>
+  </si>
+  <si>
+    <t>9db18724-9484-4bfe-938d-be7a3194a81c</t>
   </si>
 </sst>
 </file>
@@ -606,7 +988,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -622,7 +1004,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -918,10 +1300,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B153567-C702-204F-B537-960DCAAE5957}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1001,19 +1383,19 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
-        <v>58</v>
+        <v>141</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C5" s="5">
-        <v>1010</v>
+        <v>2005</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F5"/>
       <c r="G5"/>
@@ -1021,19 +1403,19 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>59</v>
+        <v>142</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C6" s="5">
-        <v>1015</v>
+        <v>2010</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F6"/>
       <c r="G6"/>
@@ -1041,19 +1423,19 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="8" t="s">
-        <v>60</v>
+        <v>143</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C7" s="5">
-        <v>1020</v>
+        <v>2015</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F7"/>
       <c r="G7"/>
@@ -1061,19 +1443,19 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="8" t="s">
-        <v>61</v>
+        <v>144</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C8" s="5">
-        <v>1025</v>
+        <v>2055</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="F8"/>
       <c r="G8"/>
@@ -1081,19 +1463,19 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="8" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C9" s="5">
-        <v>1005</v>
+        <v>2105</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="F9"/>
       <c r="G9"/>
@@ -1101,19 +1483,19 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="8" t="s">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C10" s="5">
-        <v>1010</v>
+        <v>2110</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="F10"/>
       <c r="G10"/>
@@ -1121,19 +1503,19 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="8" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C11" s="5">
-        <v>1005</v>
+        <v>2115</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="F11"/>
       <c r="G11"/>
@@ -1141,19 +1523,19 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="8" t="s">
-        <v>21</v>
+        <v>148</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C12" s="5">
-        <v>1010</v>
+        <v>2155</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F12"/>
       <c r="G12"/>
@@ -1161,19 +1543,19 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="8" t="s">
-        <v>22</v>
+        <v>149</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C13" s="5">
-        <v>1015</v>
+        <v>2205</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F13"/>
       <c r="G13"/>
@@ -1181,19 +1563,19 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="8" t="s">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C14" s="5">
-        <v>1005</v>
+        <v>2210</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="F14"/>
       <c r="G14"/>
@@ -1201,19 +1583,19 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="8" t="s">
-        <v>27</v>
+        <v>151</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="C15" s="5">
-        <v>1010</v>
+        <v>2215</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="F15"/>
       <c r="G15"/>
@@ -1221,19 +1603,19 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="8" t="s">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="C16" s="5">
-        <v>1015</v>
+        <v>2220</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="F16"/>
       <c r="G16"/>
@@ -1241,19 +1623,19 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="8" t="s">
-        <v>47</v>
+        <v>153</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C17" s="5">
-        <v>1020</v>
+        <v>2250</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="F17"/>
       <c r="G17"/>
@@ -1261,19 +1643,19 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="8" t="s">
-        <v>32</v>
+        <v>154</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C18" s="5">
-        <v>1005</v>
+        <v>2255</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="F18"/>
       <c r="G18"/>
@@ -1281,19 +1663,19 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>33</v>
-      </c>
       <c r="C19" s="5">
-        <v>1010</v>
+        <v>2260</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="F19"/>
       <c r="G19"/>
@@ -1301,257 +1683,1149 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="8" t="s">
-        <v>71</v>
+        <v>156</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="C20" s="5">
-        <v>1005</v>
+        <v>2265</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>64</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="8" t="s">
-        <v>72</v>
+        <v>157</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="C21" s="5">
-        <v>1010</v>
+        <v>2270</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>68</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="8" t="s">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="C22" s="5">
-        <v>1015</v>
+        <v>2275</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>69</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="8" t="s">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="C23" s="5">
-        <v>1020</v>
+        <v>1005</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>70</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="8" t="s">
-        <v>103</v>
+        <v>160</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="C24" s="5">
-        <v>1005</v>
+        <v>1010</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>101</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="8" t="s">
-        <v>104</v>
+        <v>161</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C25" s="5">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="8" t="s">
-        <v>82</v>
+        <v>162</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C26" s="5">
-        <v>1005</v>
+        <v>1010</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="8" t="s">
-        <v>83</v>
+        <v>163</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C27" s="5">
-        <v>1010</v>
+        <v>1015</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="8" t="s">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C28" s="5">
-        <v>1015</v>
+        <v>1005</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="8" t="s">
-        <v>94</v>
+        <v>165</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="C29" s="5">
-        <v>1005</v>
+        <v>1010</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="8" t="s">
-        <v>95</v>
+        <v>166</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="C30" s="5">
-        <v>1010</v>
+        <v>1015</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="8" t="s">
-        <v>96</v>
+        <v>167</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="C31" s="5">
-        <v>1015</v>
+        <v>1020</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="8" t="s">
-        <v>97</v>
+        <v>168</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="C32" s="5">
+        <v>1005</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="5">
+        <v>1010</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="5">
+        <v>1015</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="5">
+        <v>1005</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="5">
+        <v>1010</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="5">
+        <v>1015</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="5">
         <v>1020</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D38" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="5">
+        <v>1005</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="5">
+        <v>1010</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="5">
+        <v>1015</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="5">
+        <v>1020</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43" s="5">
+        <v>1005</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" s="5">
+        <v>1010</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" s="5">
+        <v>1005</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" s="5">
+        <v>1010</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47" s="5">
+        <v>1005</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48" s="5">
+        <v>1010</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B49" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="E32" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="8" t="s">
+      <c r="C49" s="5">
+        <v>1005</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="5">
+        <v>1010</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" s="5">
+        <v>1015</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C52" s="5">
+        <v>1020</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C53" s="5">
+        <v>1025</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C54" s="5">
+        <v>1030</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C55" s="5">
+        <v>1035</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C56" s="5">
+        <v>1040</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C57" s="5">
+        <v>1005</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C58" s="5">
+        <v>1010</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C59" s="5">
+        <v>1005</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C60" s="5">
+        <v>1010</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C61" s="5">
+        <v>1015</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C62" s="5">
+        <v>1020</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C63" s="5">
+        <v>1005</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C64" s="5">
+        <v>1010</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C65" s="5">
+        <v>1005</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C66" s="5">
+        <v>1010</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C67" s="5">
+        <v>1015</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C68" s="5">
+        <v>1020</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C69" s="5">
+        <v>1025</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C70" s="5">
+        <v>1030</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C71" s="5">
+        <v>1035</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C72" s="5">
+        <v>1040</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C73" s="5">
+        <v>1005</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C74" s="5">
+        <v>1010</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C75" s="5">
+        <v>1005</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C76" s="5">
+        <v>1010</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C77" s="5">
+        <v>1015</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C78" s="5">
+        <v>1020</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B79" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C33" s="5">
+      <c r="C79" s="5">
         <v>1005</v>
       </c>
-      <c r="D33" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="8" t="s">
+      <c r="D79" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C80" s="5">
+        <v>1010</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C81" s="5">
+        <v>1015</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B82" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="B34" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C34" s="5">
+      <c r="C82" s="5">
+        <v>1005</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C83" s="5">
         <v>1010</v>
       </c>
-      <c r="D34" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>111</v>
+      <c r="D83" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C84" s="5">
+        <v>1015</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/erp.dict.xlsx
+++ b/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/erp.dict.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED32A028-02CD-B24B-B4CD-6FBF62748DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="71340" yWindow="-10780" windowWidth="30420" windowHeight="29940" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="71340" yWindow="-10776" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-LDATA" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="235">
   <si>
     <t>code</t>
   </si>
@@ -797,13 +791,65 @@
   </si>
   <si>
     <t>9db18724-9484-4bfe-938d-be7a3194a81c</t>
+  </si>
+  <si>
+    <t>zero.employee.training</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>现场</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>网课</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>scene</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>self</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>online</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>f405154a-eeb7-4f74-a902-621d9af5dacd</t>
+  </si>
+  <si>
+    <t>263fb829-948c-4bb6-b31b-68e58d3c5887</t>
+  </si>
+  <si>
+    <t>ac6a74a9-c82c-4b6c-8a86-be7645eaa933</t>
+  </si>
+  <si>
+    <t>eacf37a5-a952-4d7a-afb5-7ce4ba8d8ccb</t>
+  </si>
+  <si>
+    <t>培训方式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.employee.training</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.employee.training</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -988,7 +1034,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1046,7 +1092,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1098,7 +1144,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1292,40 +1338,40 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B153567-C702-204F-B537-960DCAAE5957}">
-  <dimension ref="A1:H84"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A84"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="55.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
@@ -1341,7 +1387,7 @@
       <c r="G2" s="12"/>
       <c r="H2" s="13"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1361,7 +1407,7 @@
       <c r="G3"/>
       <c r="H3"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1381,7 +1427,7 @@
       <c r="G4"/>
       <c r="H4"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>141</v>
       </c>
@@ -1401,7 +1447,7 @@
       <c r="G5"/>
       <c r="H5"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>142</v>
       </c>
@@ -1421,7 +1467,7 @@
       <c r="G6"/>
       <c r="H6"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>143</v>
       </c>
@@ -1441,7 +1487,7 @@
       <c r="G7"/>
       <c r="H7"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>144</v>
       </c>
@@ -1461,7 +1507,7 @@
       <c r="G8"/>
       <c r="H8"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>145</v>
       </c>
@@ -1481,7 +1527,7 @@
       <c r="G9"/>
       <c r="H9"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>146</v>
       </c>
@@ -1501,7 +1547,7 @@
       <c r="G10"/>
       <c r="H10"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>147</v>
       </c>
@@ -1521,1310 +1567,1381 @@
       <c r="G11"/>
       <c r="H11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
-        <v>148</v>
+        <v>231</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>36</v>
       </c>
       <c r="C12" s="5">
-        <v>2155</v>
+        <v>2120</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>45</v>
+        <v>232</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>46</v>
+        <v>234</v>
       </c>
       <c r="F12"/>
       <c r="G12"/>
       <c r="H12"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>36</v>
       </c>
       <c r="C13" s="5">
-        <v>2205</v>
+        <v>2155</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="F13"/>
       <c r="G13"/>
       <c r="H13"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>36</v>
       </c>
       <c r="C14" s="5">
-        <v>2210</v>
+        <v>2205</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F14"/>
       <c r="G14"/>
       <c r="H14"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="C15" s="5">
-        <v>2215</v>
+        <v>2210</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F15"/>
       <c r="G15"/>
       <c r="H15"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>87</v>
       </c>
       <c r="C16" s="5">
-        <v>2220</v>
+        <v>2215</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="F16"/>
       <c r="G16"/>
       <c r="H16"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="C17" s="5">
-        <v>2250</v>
+        <v>2220</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F17"/>
       <c r="G17"/>
       <c r="H17"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="5">
-        <v>2255</v>
+        <v>2250</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="F18"/>
       <c r="G18"/>
       <c r="H18"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>36</v>
       </c>
       <c r="C19" s="5">
-        <v>2260</v>
+        <v>2255</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F19"/>
       <c r="G19"/>
       <c r="H19"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="5">
-        <v>2265</v>
+        <v>2260</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F20"/>
       <c r="G20"/>
       <c r="H20"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>36</v>
       </c>
       <c r="C21" s="5">
-        <v>2270</v>
+        <v>2265</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F21"/>
       <c r="G21"/>
       <c r="H21"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>36</v>
       </c>
       <c r="C22" s="5">
-        <v>2275</v>
+        <v>2270</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F22"/>
       <c r="G22"/>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C23" s="5">
-        <v>1005</v>
+        <v>2275</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="F23"/>
       <c r="G23"/>
       <c r="H23"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="5">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F24"/>
       <c r="G24"/>
       <c r="H24"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="5">
+        <v>1010</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="8" t="s">
         <v>161</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="5">
-        <v>1005</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="8" t="s">
-        <v>162</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>57</v>
       </c>
       <c r="C26" s="5">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>57</v>
       </c>
       <c r="C27" s="5">
+        <v>1010</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="5">
         <v>1015</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D28" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E28" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="8" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="8" t="s">
         <v>164</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="5">
-        <v>1005</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="8" t="s">
-        <v>165</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>63</v>
       </c>
       <c r="C29" s="5">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>63</v>
       </c>
       <c r="C30" s="5">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>63</v>
       </c>
       <c r="C31" s="5">
+        <v>1015</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="5">
         <v>1020</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D32" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E32" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="8" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="8" t="s">
         <v>168</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="5">
-        <v>1005</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F32"/>
-      <c r="G32"/>
-      <c r="H32"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="8" t="s">
-        <v>169</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C33" s="5">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F33"/>
       <c r="G33"/>
       <c r="H33"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C34" s="5">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F34"/>
       <c r="G34"/>
       <c r="H34"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="C35" s="5">
-        <v>1005</v>
+        <v>1015</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F35"/>
       <c r="G35"/>
       <c r="H35"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C36" s="5">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F36"/>
       <c r="G36"/>
       <c r="H36"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="C37" s="5">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="F37"/>
       <c r="G37"/>
       <c r="H37"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C38" s="5">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F38"/>
       <c r="G38"/>
       <c r="H38"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="5">
+        <v>1020</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="8" t="s">
         <v>175</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C39" s="5">
-        <v>1005</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="8" t="s">
-        <v>176</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>56</v>
       </c>
       <c r="C40" s="5">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>56</v>
       </c>
       <c r="C41" s="5">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>56</v>
       </c>
       <c r="C42" s="5">
+        <v>1015</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="5">
         <v>1020</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D43" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="E43" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="8" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" s="8" t="s">
         <v>179</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C43" s="5">
-        <v>1005</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="8" t="s">
-        <v>180</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>72</v>
       </c>
       <c r="C44" s="5">
+        <v>1005</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" s="5">
         <v>1010</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D45" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="E45" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="8" t="s">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C46" s="5">
+        <v>1005</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C47" s="5">
+        <v>1010</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="C48" s="5">
+        <v>1015</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A49" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B49" s="11" t="s">
         <v>24</v>
-      </c>
-      <c r="C45" s="5">
-        <v>1005</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F45"/>
-      <c r="G45"/>
-      <c r="H45"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C46" s="5">
-        <v>1010</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F46"/>
-      <c r="G46"/>
-      <c r="H46"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C47" s="5">
-        <v>1005</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C48" s="5">
-        <v>1010</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>89</v>
       </c>
       <c r="C49" s="5">
         <v>1005</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>26</v>
+      </c>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="C50" s="5">
         <v>1010</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>33</v>
+      </c>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="8" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C51" s="5">
-        <v>1015</v>
+        <v>1005</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="8" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C52" s="5">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="8" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>89</v>
       </c>
       <c r="C53" s="5">
-        <v>1025</v>
+        <v>1005</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="8" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B54" s="11" t="s">
         <v>89</v>
       </c>
       <c r="C54" s="5">
-        <v>1030</v>
+        <v>1010</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="8" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>89</v>
       </c>
       <c r="C55" s="5">
-        <v>1035</v>
+        <v>1015</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="8" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B56" s="11" t="s">
         <v>89</v>
       </c>
       <c r="C56" s="5">
+        <v>1020</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A57" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C57" s="5">
+        <v>1025</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A58" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C58" s="5">
+        <v>1030</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A59" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C59" s="5">
+        <v>1035</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A60" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C60" s="5">
         <v>1040</v>
       </c>
-      <c r="D56" s="9" t="s">
+      <c r="D60" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="E56" s="9" t="s">
+      <c r="E60" s="9" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="8" t="s">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A61" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B61" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C61" s="5">
         <v>1005</v>
       </c>
-      <c r="D57" s="9" t="s">
+      <c r="D61" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="E57" s="9" t="s">
+      <c r="E61" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="8" t="s">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A62" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B62" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C58" s="5">
+      <c r="C62" s="5">
         <v>1010</v>
       </c>
-      <c r="D58" s="9" t="s">
+      <c r="D62" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="E58" s="9" t="s">
+      <c r="E62" s="9" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="8" t="s">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A63" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="B63" s="11" t="s">
         <v>90</v>
-      </c>
-      <c r="C59" s="5">
-        <v>1005</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C60" s="5">
-        <v>1010</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="B61" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C61" s="5">
-        <v>1015</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C62" s="5">
-        <v>1020</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="B63" s="11" t="s">
-        <v>91</v>
       </c>
       <c r="C63" s="5">
         <v>1005</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="8" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C64" s="5">
         <v>1010</v>
       </c>
       <c r="D64" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65" s="5">
+        <v>1015</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C66" s="5">
+        <v>1020</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C67" s="5">
+        <v>1005</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C68" s="5">
+        <v>1010</v>
+      </c>
+      <c r="D68" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E64" s="9" t="s">
+      <c r="E68" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="8" t="s">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" s="8" t="s">
         <v>201</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C65" s="5">
-        <v>1005</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C66" s="5">
-        <v>1010</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C67" s="5">
-        <v>1015</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C68" s="5">
-        <v>1020</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="8" t="s">
-        <v>205</v>
       </c>
       <c r="B69" s="11" t="s">
         <v>100</v>
       </c>
       <c r="C69" s="5">
-        <v>1025</v>
+        <v>1005</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="8" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B70" s="11" t="s">
         <v>100</v>
       </c>
       <c r="C70" s="5">
-        <v>1030</v>
+        <v>1010</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="8" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B71" s="11" t="s">
         <v>100</v>
       </c>
       <c r="C71" s="5">
-        <v>1035</v>
+        <v>1015</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="8" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B72" s="11" t="s">
         <v>100</v>
       </c>
       <c r="C72" s="5">
+        <v>1020</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C73" s="5">
+        <v>1025</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C74" s="5">
+        <v>1030</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75" s="5">
+        <v>1035</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C76" s="5">
         <v>1040</v>
       </c>
-      <c r="D72" s="9" t="s">
+      <c r="D76" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="E72" s="9" t="s">
+      <c r="E76" s="9" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="8" t="s">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B73" s="11" t="s">
+      <c r="B77" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C73" s="5">
+      <c r="C77" s="5">
         <v>1005</v>
       </c>
-      <c r="D73" s="9" t="s">
+      <c r="D77" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="E73" s="9" t="s">
+      <c r="E77" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="8" t="s">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="B74" s="11" t="s">
+      <c r="B78" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C74" s="5">
+      <c r="C78" s="5">
         <v>1010</v>
       </c>
-      <c r="D74" s="9" t="s">
+      <c r="D78" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="E74" s="9" t="s">
+      <c r="E78" s="9" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="8" t="s">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="B75" s="11" t="s">
+      <c r="B79" s="11" t="s">
         <v>104</v>
-      </c>
-      <c r="C75" s="5">
-        <v>1005</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="B76" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="C76" s="5">
-        <v>1010</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E76" s="9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="B77" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="C77" s="5">
-        <v>1015</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E77" s="9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="B78" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="C78" s="5">
-        <v>1020</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E78" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="B79" s="11" t="s">
-        <v>108</v>
       </c>
       <c r="C79" s="5">
         <v>1005</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>133</v>
+        <v>29</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="8" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C80" s="5">
         <v>1010</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>66</v>
+        <v>129</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="8" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C81" s="5">
         <v>1015</v>
       </c>
       <c r="D81" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C82" s="5">
+        <v>1020</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C83" s="5">
+        <v>1005</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C84" s="5">
+        <v>1010</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C85" s="5">
+        <v>1015</v>
+      </c>
+      <c r="D85" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="E81" s="9" t="s">
+      <c r="E85" s="9" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="8" t="s">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="B82" s="11" t="s">
+      <c r="B86" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C82" s="5">
+      <c r="C86" s="5">
         <v>1005</v>
       </c>
-      <c r="D82" s="9" t="s">
+      <c r="D86" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E82" s="9" t="s">
+      <c r="E86" s="9" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="8" t="s">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="B83" s="11" t="s">
+      <c r="B87" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C83" s="5">
+      <c r="C87" s="5">
         <v>1010</v>
       </c>
-      <c r="D83" s="9" t="s">
+      <c r="D87" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E83" s="9" t="s">
+      <c r="E87" s="9" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="8" t="s">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="B84" s="11" t="s">
+      <c r="B88" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C84" s="5">
+      <c r="C88" s="5">
         <v>1015</v>
       </c>
-      <c r="D84" s="9" t="s">
+      <c r="D88" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="E84" s="9" t="s">
+      <c r="E88" s="9" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2834,5 +2951,6 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>